--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Siglec1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Siglec1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.448046</v>
+        <v>0.2312576666666667</v>
       </c>
       <c r="H2">
-        <v>1.344138</v>
+        <v>0.693773</v>
       </c>
       <c r="I2">
-        <v>0.003262765631400001</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="J2">
-        <v>0.003262765631400002</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01649366666666667</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N2">
-        <v>0.049481</v>
+        <v>0.29795</v>
       </c>
       <c r="O2">
-        <v>0.004545751865760082</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P2">
-        <v>0.004545751865760082</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q2">
-        <v>0.007389921375333334</v>
+        <v>0.02296774059444445</v>
       </c>
       <c r="R2">
-        <v>0.066509292378</v>
+        <v>0.20670966535</v>
       </c>
       <c r="S2">
-        <v>1.483172295647443E-05</v>
+        <v>1.671144281062179E-05</v>
       </c>
       <c r="T2">
-        <v>1.483172295647443E-05</v>
+        <v>1.671144281062179E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,46 +602,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.448046</v>
+        <v>0.2312576666666667</v>
       </c>
       <c r="H3">
-        <v>1.344138</v>
+        <v>0.693773</v>
       </c>
       <c r="I3">
-        <v>0.003262765631400001</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="J3">
-        <v>0.003262765631400002</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.09931666666666666</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N3">
-        <v>0.29795</v>
+        <v>13.556798</v>
       </c>
       <c r="O3">
-        <v>0.02737225942085278</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P3">
-        <v>0.02737225942085278</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q3">
-        <v>0.04449843523333333</v>
+        <v>1.045037824317111</v>
       </c>
       <c r="R3">
-        <v>0.4004859171</v>
+        <v>9.405340418853999</v>
       </c>
       <c r="S3">
-        <v>8.930926729212337E-05</v>
+        <v>0.0007603747423129783</v>
       </c>
       <c r="T3">
-        <v>8.930926729212338E-05</v>
+        <v>0.0007603747423129781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.448046</v>
+        <v>0.2312576666666667</v>
       </c>
       <c r="H4">
-        <v>1.344138</v>
+        <v>0.693773</v>
       </c>
       <c r="I4">
-        <v>0.003262765631400001</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="J4">
-        <v>0.003262765631400002</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7543926666666666</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N4">
-        <v>2.263178</v>
+        <v>0.513113</v>
       </c>
       <c r="O4">
-        <v>0.2079150707553843</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P4">
-        <v>0.2079150707553843</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q4">
-        <v>0.3380026167293333</v>
+        <v>0.03955377170544445</v>
       </c>
       <c r="R4">
-        <v>3.042023550564</v>
+        <v>0.355983945349</v>
       </c>
       <c r="S4">
-        <v>0.0006783781471107674</v>
+        <v>2.877952191604826E-05</v>
       </c>
       <c r="T4">
-        <v>0.0006783781471107676</v>
+        <v>2.877952191604826E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,51 +726,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.448046</v>
+        <v>0.2312576666666667</v>
       </c>
       <c r="H5">
-        <v>1.344138</v>
+        <v>0.693773</v>
       </c>
       <c r="I5">
-        <v>0.003262765631400001</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="J5">
-        <v>0.003262765631400002</v>
+        <v>0.001232279189359857</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3226226666666667</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N5">
-        <v>0.9678680000000001</v>
+        <v>7.602569</v>
       </c>
       <c r="O5">
-        <v>0.08891671079423373</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P5">
-        <v>0.08891671079423373</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q5">
-        <v>0.1445497953093333</v>
+        <v>0.5860507892041111</v>
       </c>
       <c r="R5">
-        <v>1.300948157784</v>
+        <v>5.274457102836999</v>
       </c>
       <c r="S5">
-        <v>0.0002901143880365593</v>
+        <v>0.0004264134823202084</v>
       </c>
       <c r="T5">
-        <v>0.0002901143880365594</v>
+        <v>0.0004264134823202083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.448046</v>
+        <v>0.293899</v>
       </c>
       <c r="H6">
-        <v>1.344138</v>
+        <v>0.881697</v>
       </c>
       <c r="I6">
-        <v>0.003262765631400001</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="J6">
-        <v>0.003262765631400002</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.435543666666667</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N6">
-        <v>7.306631</v>
+        <v>0.29795</v>
       </c>
       <c r="O6">
-        <v>0.671250207163769</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P6">
-        <v>0.671250207163769</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q6">
-        <v>1.091235597675333</v>
+        <v>0.02918906901666666</v>
       </c>
       <c r="R6">
-        <v>9.821120379078002</v>
+        <v>0.26270162115</v>
       </c>
       <c r="S6">
-        <v>0.002190132106004077</v>
+        <v>2.123811245435726E-05</v>
       </c>
       <c r="T6">
-        <v>0.002190132106004077</v>
+        <v>2.123811245435726E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>0.881697</v>
       </c>
       <c r="I7">
-        <v>0.002140234610515056</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="J7">
-        <v>0.002140234610515056</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01649366666666667</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N7">
-        <v>0.049481</v>
+        <v>13.556798</v>
       </c>
       <c r="O7">
-        <v>0.004545751865760082</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P7">
-        <v>0.004545751865760082</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q7">
-        <v>0.004847472139666666</v>
+        <v>1.328109791800667</v>
       </c>
       <c r="R7">
-        <v>0.043627249257</v>
+        <v>11.952988126206</v>
       </c>
       <c r="S7">
-        <v>9.728975473913121E-06</v>
+        <v>0.0009663393201711884</v>
       </c>
       <c r="T7">
-        <v>9.728975473913121E-06</v>
+        <v>0.0009663393201711885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>0.881697</v>
       </c>
       <c r="I8">
-        <v>0.002140234610515056</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="J8">
-        <v>0.002140234610515056</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09931666666666666</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N8">
-        <v>0.29795</v>
+        <v>0.513113</v>
       </c>
       <c r="O8">
-        <v>0.02737225942085278</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P8">
-        <v>0.02737225942085278</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q8">
-        <v>0.02918906901666666</v>
+        <v>0.05026779919566667</v>
       </c>
       <c r="R8">
-        <v>0.26270162115</v>
+        <v>0.452410192761</v>
       </c>
       <c r="S8">
-        <v>5.858305698050594E-05</v>
+        <v>3.657510184860753E-05</v>
       </c>
       <c r="T8">
-        <v>5.858305698050594E-05</v>
+        <v>3.657510184860755E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,55 +980,55 @@
         <v>0.881697</v>
       </c>
       <c r="I9">
-        <v>0.002140234610515056</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="J9">
-        <v>0.002140234610515056</v>
+        <v>0.001566069686224482</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7543926666666666</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N9">
-        <v>2.263178</v>
+        <v>7.602569</v>
       </c>
       <c r="O9">
-        <v>0.2079150707553843</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P9">
-        <v>0.2079150707553843</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q9">
-        <v>0.2217152503406666</v>
+        <v>0.7447958088436666</v>
       </c>
       <c r="R9">
-        <v>1.995437253066</v>
+        <v>6.703162279592999</v>
       </c>
       <c r="S9">
-        <v>0.0004449870304783603</v>
+        <v>0.0005419171517503286</v>
       </c>
       <c r="T9">
-        <v>0.0004449870304783604</v>
+        <v>0.0005419171517503286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.293899</v>
+        <v>101.3636933333333</v>
       </c>
       <c r="H10">
-        <v>0.881697</v>
+        <v>304.09108</v>
       </c>
       <c r="I10">
-        <v>0.002140234610515056</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="J10">
-        <v>0.002140234610515056</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3226226666666667</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N10">
-        <v>0.9678680000000001</v>
+        <v>0.29795</v>
       </c>
       <c r="O10">
-        <v>0.08891671079423373</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P10">
-        <v>0.08891671079423373</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q10">
-        <v>0.09481847911066665</v>
+        <v>10.06710414288889</v>
       </c>
       <c r="R10">
-        <v>0.853366311996</v>
+        <v>90.60393728599999</v>
       </c>
       <c r="S10">
-        <v>0.0001903026218949768</v>
+        <v>0.00732487527280568</v>
       </c>
       <c r="T10">
-        <v>0.0001903026218949768</v>
+        <v>0.007324875272805681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.293899</v>
+        <v>101.3636933333333</v>
       </c>
       <c r="H11">
-        <v>0.881697</v>
+        <v>304.09108</v>
       </c>
       <c r="I11">
-        <v>0.002140234610515056</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="J11">
-        <v>0.002140234610515056</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.435543666666667</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N11">
-        <v>7.306631</v>
+        <v>13.556798</v>
       </c>
       <c r="O11">
-        <v>0.671250207163769</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P11">
-        <v>0.671250207163769</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q11">
-        <v>0.7158038480896666</v>
+        <v>458.0557050179822</v>
       </c>
       <c r="R11">
-        <v>6.442234632807</v>
+        <v>4122.50134516184</v>
       </c>
       <c r="S11">
-        <v>0.0014366329256873</v>
+        <v>0.3332836195624149</v>
       </c>
       <c r="T11">
-        <v>0.0014366329256873</v>
+        <v>0.3332836195624149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.343451</v>
+        <v>101.3636933333333</v>
       </c>
       <c r="H12">
-        <v>205.030353</v>
+        <v>304.09108</v>
       </c>
       <c r="I12">
-        <v>0.4976914492129604</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="J12">
-        <v>0.4976914492129604</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.01649366666666667</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N12">
-        <v>0.049481</v>
+        <v>0.513113</v>
       </c>
       <c r="O12">
-        <v>0.004545751865760082</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P12">
-        <v>0.004545751865760082</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q12">
-        <v>1.127234099643667</v>
+        <v>17.33700959244889</v>
       </c>
       <c r="R12">
-        <v>10.145106896793</v>
+        <v>156.03308633204</v>
       </c>
       <c r="S12">
-        <v>0.002262381833832654</v>
+        <v>0.01261449480065494</v>
       </c>
       <c r="T12">
-        <v>0.002262381833832654</v>
+        <v>0.01261449480065495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.343451</v>
+        <v>101.3636933333333</v>
       </c>
       <c r="H13">
-        <v>205.030353</v>
+        <v>304.09108</v>
       </c>
       <c r="I13">
-        <v>0.4976914492129604</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="J13">
-        <v>0.4976914492129604</v>
+        <v>0.5401263951666659</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09931666666666666</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N13">
-        <v>0.29795</v>
+        <v>7.602569</v>
       </c>
       <c r="O13">
-        <v>0.02737225942085278</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P13">
-        <v>0.02737225942085278</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q13">
-        <v>6.787643741816667</v>
+        <v>256.8748242205022</v>
       </c>
       <c r="R13">
-        <v>61.08879367634999</v>
+        <v>2311.87341798452</v>
       </c>
       <c r="S13">
-        <v>0.01362293945939733</v>
+        <v>0.1869034055307904</v>
       </c>
       <c r="T13">
-        <v>0.01362293945939733</v>
+        <v>0.1869034055307904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>68.343451</v>
+        <v>0.05773033333333333</v>
       </c>
       <c r="H14">
-        <v>205.030353</v>
+        <v>0.173191</v>
       </c>
       <c r="I14">
-        <v>0.4976914492129604</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="J14">
-        <v>0.4976914492129604</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.7543926666666666</v>
+        <v>0.09931666666666666</v>
       </c>
       <c r="N14">
-        <v>2.263178</v>
+        <v>0.29795</v>
       </c>
       <c r="O14">
-        <v>0.2079150707553843</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P14">
-        <v>0.2079150707553843</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q14">
-        <v>51.55779824909266</v>
+        <v>0.005733584272222222</v>
       </c>
       <c r="R14">
-        <v>464.020184241834</v>
+        <v>0.05160225845</v>
       </c>
       <c r="S14">
-        <v>0.1034775528774624</v>
+        <v>4.17178456327127E-06</v>
       </c>
       <c r="T14">
-        <v>0.1034775528774624</v>
+        <v>4.17178456327127E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>68.343451</v>
+        <v>0.05773033333333333</v>
       </c>
       <c r="H15">
-        <v>205.030353</v>
+        <v>0.173191</v>
       </c>
       <c r="I15">
-        <v>0.4976914492129604</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="J15">
-        <v>0.4976914492129604</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3226226666666667</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N15">
-        <v>0.9678680000000001</v>
+        <v>13.556798</v>
       </c>
       <c r="O15">
-        <v>0.08891671079423373</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P15">
-        <v>0.08891671079423373</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q15">
-        <v>22.04914641082267</v>
+        <v>0.2608794891575556</v>
       </c>
       <c r="R15">
-        <v>198.442317697404</v>
+        <v>2.347915402418</v>
       </c>
       <c r="S15">
-        <v>0.04425308665443187</v>
+        <v>0.0001898172197475644</v>
       </c>
       <c r="T15">
-        <v>0.04425308665443187</v>
+        <v>0.0001898172197475644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>68.343451</v>
+        <v>0.05773033333333333</v>
       </c>
       <c r="H16">
-        <v>205.030353</v>
+        <v>0.173191</v>
       </c>
       <c r="I16">
-        <v>0.4976914492129604</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="J16">
-        <v>0.4976914492129604</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.435543666666667</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N16">
-        <v>7.306631</v>
+        <v>0.513113</v>
       </c>
       <c r="O16">
-        <v>0.671250207163769</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P16">
-        <v>0.671250207163769</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q16">
-        <v>166.4534592411937</v>
+        <v>0.009874061509222223</v>
       </c>
       <c r="R16">
-        <v>1498.081133170743</v>
+        <v>0.08886655358300001</v>
       </c>
       <c r="S16">
-        <v>0.3340754883878361</v>
+        <v>7.184416488047695E-06</v>
       </c>
       <c r="T16">
-        <v>0.3340754883878361</v>
+        <v>7.184416488047697E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1421996666666667</v>
+        <v>0.05773033333333333</v>
       </c>
       <c r="H17">
-        <v>0.426599</v>
+        <v>0.173191</v>
       </c>
       <c r="I17">
-        <v>0.001035528015419257</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="J17">
-        <v>0.001035528015419257</v>
+        <v>0.0003076217510402148</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01649366666666667</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N17">
-        <v>0.049481</v>
+        <v>7.602569</v>
       </c>
       <c r="O17">
-        <v>0.004545751865760082</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P17">
-        <v>0.004545751865760082</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q17">
-        <v>0.002345393902111111</v>
+        <v>0.1462996141865556</v>
       </c>
       <c r="R17">
-        <v>0.021108545119</v>
+        <v>1.316696527679</v>
       </c>
       <c r="S17">
-        <v>4.707253408138923E-06</v>
+        <v>0.0001064483302413314</v>
       </c>
       <c r="T17">
-        <v>4.707253408138923E-06</v>
+        <v>0.0001064483302413314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1421996666666667</v>
+        <v>85.72003666666666</v>
       </c>
       <c r="H18">
-        <v>0.426599</v>
+        <v>257.16011</v>
       </c>
       <c r="I18">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="J18">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,27 +1556,27 @@
         <v>0.29795</v>
       </c>
       <c r="O18">
-        <v>0.02737225942085278</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="P18">
-        <v>0.02737225942085278</v>
+        <v>0.01356140958552017</v>
       </c>
       <c r="Q18">
-        <v>0.01412279689444444</v>
+        <v>8.513428308277776</v>
       </c>
       <c r="R18">
-        <v>0.12710517205</v>
+        <v>76.62085477449999</v>
       </c>
       <c r="S18">
-        <v>2.834474147561674E-05</v>
+        <v>0.006194412972886244</v>
       </c>
       <c r="T18">
-        <v>2.834474147561674E-05</v>
+        <v>0.006194412972886244</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1421996666666667</v>
+        <v>85.72003666666666</v>
       </c>
       <c r="H19">
-        <v>0.426599</v>
+        <v>257.16011</v>
       </c>
       <c r="I19">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="J19">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7543926666666666</v>
+        <v>4.518932666666667</v>
       </c>
       <c r="N19">
-        <v>2.263178</v>
+        <v>13.556798</v>
       </c>
       <c r="O19">
-        <v>0.2079150707553843</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="P19">
-        <v>0.2079150707553843</v>
+        <v>0.6170474587889268</v>
       </c>
       <c r="Q19">
-        <v>0.1072743857357778</v>
+        <v>387.3630738808644</v>
       </c>
       <c r="R19">
-        <v>0.965469471622</v>
+        <v>3486.26766492778</v>
       </c>
       <c r="S19">
-        <v>0.0002153018805950775</v>
+        <v>0.2818473079442802</v>
       </c>
       <c r="T19">
-        <v>0.0002153018805950775</v>
+        <v>0.2818473079442802</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1421996666666667</v>
+        <v>85.72003666666666</v>
       </c>
       <c r="H20">
-        <v>0.426599</v>
+        <v>257.16011</v>
       </c>
       <c r="I20">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="J20">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.3226226666666667</v>
+        <v>0.1710376666666667</v>
       </c>
       <c r="N20">
-        <v>0.9678680000000001</v>
+        <v>0.513113</v>
       </c>
       <c r="O20">
-        <v>0.08891671079423373</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="P20">
-        <v>0.08891671079423373</v>
+        <v>0.02335470903391513</v>
       </c>
       <c r="Q20">
-        <v>0.04587683565911111</v>
+        <v>14.66135505804778</v>
       </c>
       <c r="R20">
-        <v>0.412891520932</v>
+        <v>131.95219552243</v>
       </c>
       <c r="S20">
-        <v>9.207574506636088E-05</v>
+        <v>0.01066767519300748</v>
       </c>
       <c r="T20">
-        <v>9.207574506636088E-05</v>
+        <v>0.01066767519300748</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1421996666666667</v>
+        <v>85.72003666666666</v>
       </c>
       <c r="H21">
-        <v>0.426599</v>
+        <v>257.16011</v>
       </c>
       <c r="I21">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="J21">
-        <v>0.001035528015419257</v>
+        <v>0.4567676342067096</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.435543666666667</v>
+        <v>2.534189666666667</v>
       </c>
       <c r="N21">
-        <v>7.306631</v>
+        <v>7.602569</v>
       </c>
       <c r="O21">
-        <v>0.671250207163769</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="P21">
-        <v>0.671250207163769</v>
+        <v>0.3460364225916379</v>
       </c>
       <c r="Q21">
-        <v>0.3463334975521111</v>
+        <v>217.2308311469544</v>
       </c>
       <c r="R21">
-        <v>3.117001477969</v>
+        <v>1955.07748032259</v>
       </c>
       <c r="S21">
-        <v>0.0006950983948740629</v>
+        <v>0.1580582380965357</v>
       </c>
       <c r="T21">
-        <v>0.0006950983948740629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>68.09333100000001</v>
-      </c>
-      <c r="H22">
-        <v>204.279993</v>
-      </c>
-      <c r="I22">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="J22">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.01649366666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.049481</v>
-      </c>
-      <c r="O22">
-        <v>0.004545751865760082</v>
-      </c>
-      <c r="P22">
-        <v>0.004545751865760082</v>
-      </c>
-      <c r="Q22">
-        <v>1.123108703737</v>
-      </c>
-      <c r="R22">
-        <v>10.107978333633</v>
-      </c>
-      <c r="S22">
-        <v>0.002254102080088902</v>
-      </c>
-      <c r="T22">
-        <v>0.002254102080088902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>68.09333100000001</v>
-      </c>
-      <c r="H23">
-        <v>204.279993</v>
-      </c>
-      <c r="I23">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="J23">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.09931666666666666</v>
-      </c>
-      <c r="N23">
-        <v>0.29795</v>
-      </c>
-      <c r="O23">
-        <v>0.02737225942085278</v>
-      </c>
-      <c r="P23">
-        <v>0.02737225942085278</v>
-      </c>
-      <c r="Q23">
-        <v>6.762802657150001</v>
-      </c>
-      <c r="R23">
-        <v>60.86522391435</v>
-      </c>
-      <c r="S23">
-        <v>0.01357308289570721</v>
-      </c>
-      <c r="T23">
-        <v>0.01357308289570721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>68.09333100000001</v>
-      </c>
-      <c r="H24">
-        <v>204.279993</v>
-      </c>
-      <c r="I24">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="J24">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.7543926666666666</v>
-      </c>
-      <c r="N24">
-        <v>2.263178</v>
-      </c>
-      <c r="O24">
-        <v>0.2079150707553843</v>
-      </c>
-      <c r="P24">
-        <v>0.2079150707553843</v>
-      </c>
-      <c r="Q24">
-        <v>51.369109555306</v>
-      </c>
-      <c r="R24">
-        <v>462.321985997754</v>
-      </c>
-      <c r="S24">
-        <v>0.1030988508197377</v>
-      </c>
-      <c r="T24">
-        <v>0.1030988508197377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>68.09333100000001</v>
-      </c>
-      <c r="H25">
-        <v>204.279993</v>
-      </c>
-      <c r="I25">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="J25">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.3226226666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.9678680000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.08891671079423373</v>
-      </c>
-      <c r="P25">
-        <v>0.08891671079423373</v>
-      </c>
-      <c r="Q25">
-        <v>21.968452029436</v>
-      </c>
-      <c r="R25">
-        <v>197.716068264924</v>
-      </c>
-      <c r="S25">
-        <v>0.04409113138480397</v>
-      </c>
-      <c r="T25">
-        <v>0.04409113138480397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>68.09333100000001</v>
-      </c>
-      <c r="H26">
-        <v>204.279993</v>
-      </c>
-      <c r="I26">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="J26">
-        <v>0.4958700225297052</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.435543666666667</v>
-      </c>
-      <c r="N26">
-        <v>7.306631</v>
-      </c>
-      <c r="O26">
-        <v>0.671250207163769</v>
-      </c>
-      <c r="P26">
-        <v>0.671250207163769</v>
-      </c>
-      <c r="Q26">
-        <v>165.844281059287</v>
-      </c>
-      <c r="R26">
-        <v>1492.598529533583</v>
-      </c>
-      <c r="S26">
-        <v>0.3328528553493675</v>
-      </c>
-      <c r="T26">
-        <v>0.3328528553493675</v>
+        <v>0.1580582380965357</v>
       </c>
     </row>
   </sheetData>
